--- a/Create Interfaces/Interface-Details.xlsx
+++ b/Create Interfaces/Interface-Details.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishna/python-projects/My_venvs/venv1-enterprise/DCNM-Python-Testing/Create Interfaces/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishna/python-projects/My_venvs/venv1-enterprise/dcnm-python/Create Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAD5628-290D-924E-952C-E495A417EBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE983B9-C330-2746-B7E8-09B7F59ED3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="5280" windowWidth="38400" windowHeight="21100" xr2:uid="{8B8DA8A5-FD7B-394D-B8B3-27BA63980BC9}"/>
+    <workbookView xWindow="51240" yWindow="5280" windowWidth="38400" windowHeight="21100" xr2:uid="{8B8DA8A5-FD7B-394D-B8B3-27BA63980BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="vPC-Interface-Details" sheetId="1" r:id="rId1"/>
     <sheet name="non-vPC-Port-Channel-Details" sheetId="2" r:id="rId2"/>
     <sheet name="Trunk-Interface-Details" sheetId="3" r:id="rId3"/>
     <sheet name="Access-Interface-Details" sheetId="4" r:id="rId4"/>
+    <sheet name="Routed-Interface-Details" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
   <si>
     <t>9GPZDK83NM0</t>
   </si>
@@ -46,9 +47,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>policy</t>
-  </si>
-  <si>
     <t>switch-1-serialNumber</t>
   </si>
   <si>
@@ -70,9 +68,6 @@
     <t>Peer-2-Description</t>
   </si>
   <si>
-    <t>int_vpc_trunk_host_11_1</t>
-  </si>
-  <si>
     <t>BPDUGUARD_ENABLED</t>
   </si>
   <si>
@@ -109,9 +104,6 @@
     <t>active</t>
   </si>
   <si>
-    <t>int_port_channel_trunk_host_11_1</t>
-  </si>
-  <si>
     <t>e1/22</t>
   </si>
   <si>
@@ -161,6 +153,102 @@
   </si>
   <si>
     <t>Migrated-Server</t>
+  </si>
+  <si>
+    <t>Switch_serialNumber</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>ADMIN_STATE</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>1/9</t>
+  </si>
+  <si>
+    <t>96BVBW65ZHF</t>
+  </si>
+  <si>
+    <t>1/10</t>
+  </si>
+  <si>
+    <t>1/11</t>
+  </si>
+  <si>
+    <t>1/12</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Hostname</t>
+  </si>
+  <si>
+    <t>Leaf-Hostname</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Prefix Length</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Peering Protocol</t>
+  </si>
+  <si>
+    <t>Peer-BGP-ASN</t>
+  </si>
+  <si>
+    <t>Static Routes</t>
+  </si>
+  <si>
+    <t>VRF</t>
+  </si>
+  <si>
+    <t>Leaf-1</t>
+  </si>
+  <si>
+    <t>9XKV1TZNRAH</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>dc-data</t>
+  </si>
+  <si>
+    <t>192.168.100.1</t>
+  </si>
+  <si>
+    <t>To-Main-Frame</t>
+  </si>
+  <si>
+    <t>Leaf-2</t>
+  </si>
+  <si>
+    <t>9PU68XG204O</t>
+  </si>
+  <si>
+    <t>192.168.100.5</t>
+  </si>
+  <si>
+    <t>BGP</t>
+  </si>
+  <si>
+    <t>Allowed VLANs</t>
+  </si>
+  <si>
+    <t>switch-1-Hostname</t>
+  </si>
+  <si>
+    <t>switch-2-Hostname</t>
   </si>
 </sst>
 </file>
@@ -202,12 +290,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,104 +611,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485B1F3-2C5A-CE42-A1C2-CED00A3E5264}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22" customWidth="1"/>
+    <col min="3" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>35</v>
+      <c r="J2" t="s">
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -630,15 +723,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FB12E8-2969-0A4D-A375-6382709C93B4}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -648,58 +740,59 @@
     <col min="8" max="8" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
@@ -708,30 +801,27 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>1</v>
@@ -740,30 +830,27 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1</v>
@@ -772,30 +859,27 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>1</v>
@@ -804,10 +888,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -818,26 +902,344 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8A2C10-63DA-4644-B38B-774BE8A654B4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3D3D23-6CC1-834E-B4D6-BEB6BF5D19E8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C856C5-6907-8046-BFA7-32651385FF62}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>1500</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2">
+        <v>65201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>1500</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3">
+        <v>65201</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>